--- a/szczepienia_woj.xlsx
+++ b/szczepienia_woj.xlsx
@@ -27,10 +27,10 @@
     <t>dziennie</t>
   </si>
   <si>
-    <t>dawka_1</t>
+    <t>dawka_2_og</t>
   </si>
   <si>
-    <t>dawka_2</t>
+    <t>dawka_2_dz</t>
   </si>
   <si>
     <t>date</t>

--- a/szczepienia_woj.xlsx
+++ b/szczepienia_woj.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="81">
   <si>
     <t>location</t>
   </si>
@@ -240,13 +240,22 @@
     <t>data</t>
   </si>
   <si>
-    <t>z arkusza</t>
+    <t>dawka 1 z arkusza</t>
   </si>
   <si>
-    <t>z województw</t>
+    <t>dawka 1 z województw</t>
   </si>
   <si>
-    <t>różnica</t>
+    <t>dawka 1 różnica</t>
+  </si>
+  <si>
+    <t>dawka 2 z arkusza</t>
+  </si>
+  <si>
+    <t>dawka 2 z województw</t>
+  </si>
+  <si>
+    <t>dawka 2 różnica</t>
   </si>
   <si>
     <t>RAZEM</t>
@@ -19873,13 +19882,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -19892,8 +19901,17 @@
       <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -19901,13 +19919,22 @@
         <v>12</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
         <v>106940</v>
       </c>
-      <c r="D2">
-        <v>-106928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2">
+        <v>64434</v>
+      </c>
+      <c r="G2">
+        <v>42506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -19915,13 +19942,22 @@
         <v>36</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="E3">
         <v>216784</v>
       </c>
-      <c r="D3">
-        <v>-216748</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3">
+        <v>110260</v>
+      </c>
+      <c r="G3">
+        <v>106524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -19929,13 +19965,22 @@
         <v>22</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
         <v>231458</v>
       </c>
-      <c r="D4">
-        <v>-231436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4">
+        <v>107802</v>
+      </c>
+      <c r="G4">
+        <v>123656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -19943,13 +19988,22 @@
         <v>18</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
         <v>203518</v>
       </c>
-      <c r="D5">
-        <v>-203500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5">
+        <v>98996</v>
+      </c>
+      <c r="G5">
+        <v>104522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -19957,13 +20011,22 @@
         <v>0</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>97810</v>
       </c>
-      <c r="D6">
-        <v>-97810</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <v>57024</v>
+      </c>
+      <c r="G6">
+        <v>40786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -19971,13 +20034,22 @@
         <v>0</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>44968</v>
       </c>
-      <c r="D7">
-        <v>-44968</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7">
+        <v>30122</v>
+      </c>
+      <c r="G7">
+        <v>14846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -19985,13 +20057,22 @@
         <v>0</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>29136</v>
       </c>
-      <c r="D8">
-        <v>-29136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8">
+        <v>19096</v>
+      </c>
+      <c r="G8">
+        <v>10040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -19999,13 +20080,22 @@
         <v>12</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
         <v>61772</v>
       </c>
-      <c r="D9">
-        <v>-61760</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9">
+        <v>22796</v>
+      </c>
+      <c r="G9">
+        <v>38976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -20013,13 +20103,22 @@
         <v>52</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>52</v>
+      </c>
+      <c r="E10">
         <v>168014</v>
       </c>
-      <c r="D10">
-        <v>-167962</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10">
+        <v>38786</v>
+      </c>
+      <c r="G10">
+        <v>129228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -20027,13 +20126,22 @@
         <v>107</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>107</v>
+      </c>
+      <c r="E11">
         <v>215155</v>
       </c>
-      <c r="D11">
-        <v>-215048</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11">
+        <v>81940</v>
+      </c>
+      <c r="G11">
+        <v>133215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -20041,13 +20149,22 @@
         <v>5</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
         <v>143077</v>
       </c>
-      <c r="D12">
-        <v>-143072</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12">
+        <v>80446</v>
+      </c>
+      <c r="G12">
+        <v>62631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -20055,13 +20172,22 @@
         <v>0</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>67216</v>
       </c>
-      <c r="D13">
-        <v>-67216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="F13">
+        <v>28392</v>
+      </c>
+      <c r="G13">
+        <v>38824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -20069,13 +20195,22 @@
         <v>0</v>
       </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>27174</v>
       </c>
-      <c r="D14">
-        <v>-27174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="F14">
+        <v>8630</v>
+      </c>
+      <c r="G14">
+        <v>18544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -20083,13 +20218,22 @@
         <v>0</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>69272</v>
       </c>
-      <c r="D15">
-        <v>-69272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="F15">
+        <v>21616</v>
+      </c>
+      <c r="G15">
+        <v>47656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -20097,13 +20241,22 @@
         <v>70</v>
       </c>
       <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>70</v>
+      </c>
+      <c r="E16">
         <v>137858</v>
       </c>
-      <c r="D16">
-        <v>-137788</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16">
+        <v>63882</v>
+      </c>
+      <c r="G16">
+        <v>73976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -20111,13 +20264,22 @@
         <v>104</v>
       </c>
       <c r="C17">
+        <v>74</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17">
         <v>300132</v>
       </c>
-      <c r="D17">
-        <v>-300028</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="F17">
+        <v>160960</v>
+      </c>
+      <c r="G17">
+        <v>139172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -20125,13 +20287,22 @@
         <v>149</v>
       </c>
       <c r="C18">
+        <v>69</v>
+      </c>
+      <c r="D18">
+        <v>80</v>
+      </c>
+      <c r="E18">
         <v>335729</v>
       </c>
-      <c r="D18">
-        <v>-335580</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="F18">
+        <v>178469</v>
+      </c>
+      <c r="G18">
+        <v>157260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -20139,13 +20310,22 @@
         <v>27</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>26</v>
+      </c>
+      <c r="E19">
         <v>67009</v>
       </c>
-      <c r="D19">
-        <v>-66982</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="F19">
+        <v>14461</v>
+      </c>
+      <c r="G19">
+        <v>52548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -20153,13 +20333,22 @@
         <v>0</v>
       </c>
       <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>29946</v>
       </c>
-      <c r="D20">
-        <v>-29946</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="F20">
+        <v>6642</v>
+      </c>
+      <c r="G20">
+        <v>23304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -20167,13 +20356,22 @@
         <v>111</v>
       </c>
       <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>111</v>
+      </c>
+      <c r="E21">
         <v>82493</v>
       </c>
-      <c r="D21">
-        <v>-82382</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="F21">
+        <v>7246</v>
+      </c>
+      <c r="G21">
+        <v>75247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -20181,13 +20379,22 @@
         <v>139</v>
       </c>
       <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>139</v>
+      </c>
+      <c r="E22">
         <v>137617</v>
       </c>
-      <c r="D22">
-        <v>-137478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="F22">
+        <v>38948</v>
+      </c>
+      <c r="G22">
+        <v>98669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -20195,13 +20402,22 @@
         <v>176</v>
       </c>
       <c r="C23">
+        <v>92</v>
+      </c>
+      <c r="D23">
+        <v>84</v>
+      </c>
+      <c r="E23">
         <v>309090</v>
       </c>
-      <c r="D23">
-        <v>-308914</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="F23">
+        <v>148738</v>
+      </c>
+      <c r="G23">
+        <v>160352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -20209,13 +20425,22 @@
         <v>60</v>
       </c>
       <c r="C24">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>17</v>
+      </c>
+      <c r="E24">
         <v>335538</v>
       </c>
-      <c r="D24">
-        <v>-335478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="F24">
+        <v>174993</v>
+      </c>
+      <c r="G24">
+        <v>160545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -20223,13 +20448,22 @@
         <v>56</v>
       </c>
       <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>38</v>
+      </c>
+      <c r="E25">
         <v>199316</v>
       </c>
-      <c r="D25">
-        <v>-199260</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="F25">
+        <v>88512</v>
+      </c>
+      <c r="G25">
+        <v>110804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -20237,13 +20471,22 @@
         <v>32</v>
       </c>
       <c r="C26">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
         <v>86354</v>
       </c>
-      <c r="D26">
-        <v>-86322</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="F26">
+        <v>22401</v>
+      </c>
+      <c r="G26">
+        <v>63953</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -20251,13 +20494,22 @@
         <v>22</v>
       </c>
       <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27">
         <v>34888</v>
       </c>
-      <c r="D27">
-        <v>-34866</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="F27">
+        <v>11152</v>
+      </c>
+      <c r="G27">
+        <v>23736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -20265,13 +20517,22 @@
         <v>1</v>
       </c>
       <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>89361</v>
       </c>
-      <c r="D28">
-        <v>-89360</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="F28">
+        <v>11024</v>
+      </c>
+      <c r="G28">
+        <v>78337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -20279,13 +20540,22 @@
         <v>292</v>
       </c>
       <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>292</v>
+      </c>
+      <c r="E29">
         <v>158810</v>
       </c>
-      <c r="D29">
-        <v>-158518</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="F29">
+        <v>42084</v>
+      </c>
+      <c r="G29">
+        <v>116726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -20293,13 +20563,22 @@
         <v>167</v>
       </c>
       <c r="C30">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>107</v>
+      </c>
+      <c r="E30">
         <v>302129</v>
       </c>
-      <c r="D30">
-        <v>-301962</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="F30">
+        <v>131492</v>
+      </c>
+      <c r="G30">
+        <v>170637</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -20307,13 +20586,22 @@
         <v>425</v>
       </c>
       <c r="C31">
+        <v>62</v>
+      </c>
+      <c r="D31">
+        <v>363</v>
+      </c>
+      <c r="E31">
         <v>335891</v>
       </c>
-      <c r="D31">
-        <v>-335466</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31">
+        <v>167392</v>
+      </c>
+      <c r="G31">
+        <v>168499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -20321,13 +20609,22 @@
         <v>204</v>
       </c>
       <c r="C32">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>160</v>
+      </c>
+      <c r="E32">
         <v>208924</v>
       </c>
-      <c r="D32">
-        <v>-208720</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32">
+        <v>86886</v>
+      </c>
+      <c r="G32">
+        <v>122038</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -20335,13 +20632,22 @@
         <v>35</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>35</v>
+      </c>
+      <c r="E33">
         <v>95379</v>
       </c>
-      <c r="D33">
-        <v>-95344</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33">
+        <v>23304</v>
+      </c>
+      <c r="G33">
+        <v>72075</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -20349,13 +20655,22 @@
         <v>61</v>
       </c>
       <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>61</v>
+      </c>
+      <c r="E34">
         <v>34165</v>
       </c>
-      <c r="D34">
-        <v>-34104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34">
+        <v>10454</v>
+      </c>
+      <c r="G34">
+        <v>23711</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -20363,13 +20678,22 @@
         <v>29</v>
       </c>
       <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>21</v>
+      </c>
+      <c r="E35">
         <v>66925</v>
       </c>
-      <c r="D35">
-        <v>-66896</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="F35">
+        <v>7188</v>
+      </c>
+      <c r="G35">
+        <v>59737</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -20377,13 +20701,22 @@
         <v>0</v>
       </c>
       <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
         <v>121496</v>
       </c>
-      <c r="D36">
-        <v>-121496</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="F36">
+        <v>16078</v>
+      </c>
+      <c r="G36">
+        <v>105418</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -20391,13 +20724,22 @@
         <v>153</v>
       </c>
       <c r="C37">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>130</v>
+      </c>
+      <c r="E37">
         <v>275829</v>
       </c>
-      <c r="D37">
-        <v>-275676</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="F37">
+        <v>83299</v>
+      </c>
+      <c r="G37">
+        <v>192530</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -20405,13 +20747,22 @@
         <v>67</v>
       </c>
       <c r="C38">
+        <v>52</v>
+      </c>
+      <c r="D38">
+        <v>15</v>
+      </c>
+      <c r="E38">
         <v>313899</v>
       </c>
-      <c r="D38">
-        <v>-313832</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="F38">
+        <v>132920</v>
+      </c>
+      <c r="G38">
+        <v>180979</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -20419,13 +20770,22 @@
         <v>162</v>
       </c>
       <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>156</v>
+      </c>
+      <c r="E39">
         <v>181002</v>
       </c>
-      <c r="D39">
-        <v>-180840</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="F39">
+        <v>76430</v>
+      </c>
+      <c r="G39">
+        <v>104572</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -20433,13 +20793,22 @@
         <v>63</v>
       </c>
       <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>63</v>
+      </c>
+      <c r="E40">
         <v>54387</v>
       </c>
-      <c r="D40">
-        <v>-54324</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="F40">
+        <v>12472</v>
+      </c>
+      <c r="G40">
+        <v>41915</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -20447,13 +20816,22 @@
         <v>2</v>
       </c>
       <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
         <v>22136</v>
       </c>
-      <c r="D41">
-        <v>-22134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="F41">
+        <v>5518</v>
+      </c>
+      <c r="G41">
+        <v>16618</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -20461,13 +20839,22 @@
         <v>0</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
         <v>47060</v>
       </c>
-      <c r="D42">
-        <v>-47060</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="F42">
+        <v>6564</v>
+      </c>
+      <c r="G42">
+        <v>40496</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -20475,13 +20862,22 @@
         <v>0</v>
       </c>
       <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
         <v>90614</v>
       </c>
-      <c r="D43">
-        <v>-90614</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="F43">
+        <v>20434</v>
+      </c>
+      <c r="G43">
+        <v>70180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -20489,13 +20885,22 @@
         <v>54</v>
       </c>
       <c r="C44">
+        <v>42</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44">
         <v>299602</v>
       </c>
-      <c r="D44">
-        <v>-299548</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="F44">
+        <v>129212</v>
+      </c>
+      <c r="G44">
+        <v>170390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -20503,13 +20908,22 @@
         <v>137</v>
       </c>
       <c r="C45">
+        <v>52</v>
+      </c>
+      <c r="D45">
+        <v>85</v>
+      </c>
+      <c r="E45">
         <v>170385</v>
       </c>
-      <c r="D45">
-        <v>-170248</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="F45">
+        <v>75298</v>
+      </c>
+      <c r="G45">
+        <v>95087</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -20517,13 +20931,22 @@
         <v>29</v>
       </c>
       <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>27</v>
+      </c>
+      <c r="E46">
         <v>19561</v>
       </c>
-      <c r="D46">
-        <v>-19532</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="F46">
+        <v>5504</v>
+      </c>
+      <c r="G46">
+        <v>14057</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -20531,13 +20954,22 @@
         <v>240</v>
       </c>
       <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>240</v>
+      </c>
+      <c r="E47">
         <v>97116</v>
       </c>
-      <c r="D47">
-        <v>-96876</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="F47">
+        <v>7430</v>
+      </c>
+      <c r="G47">
+        <v>89686</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -20545,13 +20977,22 @@
         <v>303</v>
       </c>
       <c r="C48">
+        <v>46</v>
+      </c>
+      <c r="D48">
+        <v>257</v>
+      </c>
+      <c r="E48">
         <v>224297</v>
       </c>
-      <c r="D48">
-        <v>-223994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="F48">
+        <v>37502</v>
+      </c>
+      <c r="G48">
+        <v>186795</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -20559,15 +21000,24 @@
         <v>331</v>
       </c>
       <c r="C49">
+        <v>121</v>
+      </c>
+      <c r="D49">
+        <v>210</v>
+      </c>
+      <c r="E49">
         <v>365145</v>
       </c>
-      <c r="D49">
-        <v>-364814</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="F49">
+        <v>96461</v>
+      </c>
+      <c r="G49">
+        <v>268684</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B50">
         <v>3965</v>
@@ -20576,7 +21026,7 @@
         <v>7312377</v>
       </c>
       <c r="D50">
-        <v>-7308412</v>
+        <v>-2870846</v>
       </c>
     </row>
   </sheetData>

--- a/szczepienia_woj.xlsx
+++ b/szczepienia_woj.xlsx
@@ -240,16 +240,16 @@
     <t>data</t>
   </si>
   <si>
-    <t>dawka 1 z arkusza</t>
+    <t>dawka 1,2 Polska</t>
   </si>
   <si>
-    <t>dawka 1 z województw</t>
+    <t>dawka 1,2 z województw</t>
   </si>
   <si>
-    <t>dawka 1 różnica</t>
+    <t>dawka 1,2 różnica</t>
   </si>
   <si>
-    <t>dawka 2 z arkusza</t>
+    <t>dawka 2 Polska</t>
   </si>
   <si>
     <t>dawka 2 z województw</t>
@@ -19928,10 +19928,10 @@
         <v>106940</v>
       </c>
       <c r="F2">
-        <v>64434</v>
+        <v>-42506</v>
       </c>
       <c r="G2">
-        <v>42506</v>
+        <v>149446</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -19951,10 +19951,10 @@
         <v>216784</v>
       </c>
       <c r="F3">
-        <v>110260</v>
+        <v>-106524</v>
       </c>
       <c r="G3">
-        <v>106524</v>
+        <v>323308</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -19974,10 +19974,10 @@
         <v>231458</v>
       </c>
       <c r="F4">
-        <v>107802</v>
+        <v>-123656</v>
       </c>
       <c r="G4">
-        <v>123656</v>
+        <v>355114</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -19997,10 +19997,10 @@
         <v>203518</v>
       </c>
       <c r="F5">
-        <v>98996</v>
+        <v>-104522</v>
       </c>
       <c r="G5">
-        <v>104522</v>
+        <v>308040</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -20020,10 +20020,10 @@
         <v>97810</v>
       </c>
       <c r="F6">
-        <v>57024</v>
+        <v>-40786</v>
       </c>
       <c r="G6">
-        <v>40786</v>
+        <v>138596</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -20043,10 +20043,10 @@
         <v>44968</v>
       </c>
       <c r="F7">
-        <v>30122</v>
+        <v>-14846</v>
       </c>
       <c r="G7">
-        <v>14846</v>
+        <v>59814</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -20066,10 +20066,10 @@
         <v>29136</v>
       </c>
       <c r="F8">
-        <v>19096</v>
+        <v>-10040</v>
       </c>
       <c r="G8">
-        <v>10040</v>
+        <v>39176</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -20089,10 +20089,10 @@
         <v>61772</v>
       </c>
       <c r="F9">
-        <v>22796</v>
+        <v>-38976</v>
       </c>
       <c r="G9">
-        <v>38976</v>
+        <v>100748</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -20112,10 +20112,10 @@
         <v>168014</v>
       </c>
       <c r="F10">
-        <v>38786</v>
+        <v>-129228</v>
       </c>
       <c r="G10">
-        <v>129228</v>
+        <v>297242</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -20135,10 +20135,10 @@
         <v>215155</v>
       </c>
       <c r="F11">
-        <v>81940</v>
+        <v>-133215</v>
       </c>
       <c r="G11">
-        <v>133215</v>
+        <v>348370</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -20158,10 +20158,10 @@
         <v>143077</v>
       </c>
       <c r="F12">
-        <v>80446</v>
+        <v>-62631</v>
       </c>
       <c r="G12">
-        <v>62631</v>
+        <v>205708</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -20181,10 +20181,10 @@
         <v>67216</v>
       </c>
       <c r="F13">
-        <v>28392</v>
+        <v>-38824</v>
       </c>
       <c r="G13">
-        <v>38824</v>
+        <v>106040</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -20204,10 +20204,10 @@
         <v>27174</v>
       </c>
       <c r="F14">
-        <v>8630</v>
+        <v>-18544</v>
       </c>
       <c r="G14">
-        <v>18544</v>
+        <v>45718</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -20227,10 +20227,10 @@
         <v>69272</v>
       </c>
       <c r="F15">
-        <v>21616</v>
+        <v>-47656</v>
       </c>
       <c r="G15">
-        <v>47656</v>
+        <v>116928</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -20250,10 +20250,10 @@
         <v>137858</v>
       </c>
       <c r="F16">
-        <v>63882</v>
+        <v>-73976</v>
       </c>
       <c r="G16">
-        <v>73976</v>
+        <v>211834</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -20273,10 +20273,10 @@
         <v>300132</v>
       </c>
       <c r="F17">
-        <v>160960</v>
+        <v>-139098</v>
       </c>
       <c r="G17">
-        <v>139172</v>
+        <v>439230</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -20296,10 +20296,10 @@
         <v>335729</v>
       </c>
       <c r="F18">
-        <v>178469</v>
+        <v>-157191</v>
       </c>
       <c r="G18">
-        <v>157260</v>
+        <v>492920</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -20319,10 +20319,10 @@
         <v>67009</v>
       </c>
       <c r="F19">
-        <v>14461</v>
+        <v>-52547</v>
       </c>
       <c r="G19">
-        <v>52548</v>
+        <v>119556</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -20342,10 +20342,10 @@
         <v>29946</v>
       </c>
       <c r="F20">
-        <v>6642</v>
+        <v>-23304</v>
       </c>
       <c r="G20">
-        <v>23304</v>
+        <v>53250</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -20365,10 +20365,10 @@
         <v>82493</v>
       </c>
       <c r="F21">
-        <v>7246</v>
+        <v>-75247</v>
       </c>
       <c r="G21">
-        <v>75247</v>
+        <v>157740</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -20388,10 +20388,10 @@
         <v>137617</v>
       </c>
       <c r="F22">
-        <v>38948</v>
+        <v>-98669</v>
       </c>
       <c r="G22">
-        <v>98669</v>
+        <v>236286</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -20411,10 +20411,10 @@
         <v>309090</v>
       </c>
       <c r="F23">
-        <v>148738</v>
+        <v>-160260</v>
       </c>
       <c r="G23">
-        <v>160352</v>
+        <v>469350</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -20434,10 +20434,10 @@
         <v>335538</v>
       </c>
       <c r="F24">
-        <v>174993</v>
+        <v>-160502</v>
       </c>
       <c r="G24">
-        <v>160545</v>
+        <v>496040</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -20457,10 +20457,10 @@
         <v>199316</v>
       </c>
       <c r="F25">
-        <v>88512</v>
+        <v>-110786</v>
       </c>
       <c r="G25">
-        <v>110804</v>
+        <v>310102</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -20480,10 +20480,10 @@
         <v>86354</v>
       </c>
       <c r="F26">
-        <v>22401</v>
+        <v>-63924</v>
       </c>
       <c r="G26">
-        <v>63953</v>
+        <v>150278</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -20503,10 +20503,10 @@
         <v>34888</v>
       </c>
       <c r="F27">
-        <v>11152</v>
+        <v>-23736</v>
       </c>
       <c r="G27">
-        <v>23736</v>
+        <v>58624</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -20526,10 +20526,10 @@
         <v>89361</v>
       </c>
       <c r="F28">
-        <v>11024</v>
+        <v>-78337</v>
       </c>
       <c r="G28">
-        <v>78337</v>
+        <v>167698</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -20549,10 +20549,10 @@
         <v>158810</v>
       </c>
       <c r="F29">
-        <v>42084</v>
+        <v>-116726</v>
       </c>
       <c r="G29">
-        <v>116726</v>
+        <v>275536</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -20572,10 +20572,10 @@
         <v>302129</v>
       </c>
       <c r="F30">
-        <v>131492</v>
+        <v>-170577</v>
       </c>
       <c r="G30">
-        <v>170637</v>
+        <v>472706</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -20595,10 +20595,10 @@
         <v>335891</v>
       </c>
       <c r="F31">
-        <v>167392</v>
+        <v>-168437</v>
       </c>
       <c r="G31">
-        <v>168499</v>
+        <v>504328</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -20618,10 +20618,10 @@
         <v>208924</v>
       </c>
       <c r="F32">
-        <v>86886</v>
+        <v>-121994</v>
       </c>
       <c r="G32">
-        <v>122038</v>
+        <v>330918</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -20641,10 +20641,10 @@
         <v>95379</v>
       </c>
       <c r="F33">
-        <v>23304</v>
+        <v>-72075</v>
       </c>
       <c r="G33">
-        <v>72075</v>
+        <v>167454</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -20664,10 +20664,10 @@
         <v>34165</v>
       </c>
       <c r="F34">
-        <v>10454</v>
+        <v>-23711</v>
       </c>
       <c r="G34">
-        <v>23711</v>
+        <v>57876</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -20687,10 +20687,10 @@
         <v>66925</v>
       </c>
       <c r="F35">
-        <v>7188</v>
+        <v>-59729</v>
       </c>
       <c r="G35">
-        <v>59737</v>
+        <v>126654</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -20710,10 +20710,10 @@
         <v>121496</v>
       </c>
       <c r="F36">
-        <v>16078</v>
+        <v>-105418</v>
       </c>
       <c r="G36">
-        <v>105418</v>
+        <v>226914</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -20733,10 +20733,10 @@
         <v>275829</v>
       </c>
       <c r="F37">
-        <v>83299</v>
+        <v>-192507</v>
       </c>
       <c r="G37">
-        <v>192530</v>
+        <v>468336</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -20756,10 +20756,10 @@
         <v>313899</v>
       </c>
       <c r="F38">
-        <v>132920</v>
+        <v>-180927</v>
       </c>
       <c r="G38">
-        <v>180979</v>
+        <v>494826</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -20779,10 +20779,10 @@
         <v>181002</v>
       </c>
       <c r="F39">
-        <v>76430</v>
+        <v>-104566</v>
       </c>
       <c r="G39">
-        <v>104572</v>
+        <v>285568</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -20802,10 +20802,10 @@
         <v>54387</v>
       </c>
       <c r="F40">
-        <v>12472</v>
+        <v>-41915</v>
       </c>
       <c r="G40">
-        <v>41915</v>
+        <v>96302</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -20825,10 +20825,10 @@
         <v>22136</v>
       </c>
       <c r="F41">
-        <v>5518</v>
+        <v>-16618</v>
       </c>
       <c r="G41">
-        <v>16618</v>
+        <v>38754</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -20848,10 +20848,10 @@
         <v>47060</v>
       </c>
       <c r="F42">
-        <v>6564</v>
+        <v>-40496</v>
       </c>
       <c r="G42">
-        <v>40496</v>
+        <v>87556</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -20871,10 +20871,10 @@
         <v>90614</v>
       </c>
       <c r="F43">
-        <v>20434</v>
+        <v>-70180</v>
       </c>
       <c r="G43">
-        <v>70180</v>
+        <v>160794</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -20894,10 +20894,10 @@
         <v>299602</v>
       </c>
       <c r="F44">
-        <v>129212</v>
+        <v>-170348</v>
       </c>
       <c r="G44">
-        <v>170390</v>
+        <v>469950</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -20917,10 +20917,10 @@
         <v>170385</v>
       </c>
       <c r="F45">
-        <v>75298</v>
+        <v>-95035</v>
       </c>
       <c r="G45">
-        <v>95087</v>
+        <v>265420</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -20940,10 +20940,10 @@
         <v>19561</v>
       </c>
       <c r="F46">
-        <v>5504</v>
+        <v>-14055</v>
       </c>
       <c r="G46">
-        <v>14057</v>
+        <v>33616</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -20963,10 +20963,10 @@
         <v>97116</v>
       </c>
       <c r="F47">
-        <v>7430</v>
+        <v>-89686</v>
       </c>
       <c r="G47">
-        <v>89686</v>
+        <v>186802</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -20986,10 +20986,10 @@
         <v>224297</v>
       </c>
       <c r="F48">
-        <v>37502</v>
+        <v>-186749</v>
       </c>
       <c r="G48">
-        <v>186795</v>
+        <v>411046</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -21009,10 +21009,10 @@
         <v>365145</v>
       </c>
       <c r="F49">
-        <v>96461</v>
+        <v>-268563</v>
       </c>
       <c r="G49">
-        <v>268684</v>
+        <v>633708</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -21023,10 +21023,10 @@
         <v>3965</v>
       </c>
       <c r="C50">
-        <v>7312377</v>
+        <v>844</v>
       </c>
       <c r="D50">
-        <v>-2870846</v>
+        <v>11752220</v>
       </c>
     </row>
   </sheetData>

--- a/szczepienia_woj.xlsx
+++ b/szczepienia_woj.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="81">
   <si>
     <t>location</t>
   </si>
@@ -19882,7 +19882,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19913,1120 +19913,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>3658171</v>
       </c>
       <c r="C2">
+        <v>3658171</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
       <c r="E2">
-        <v>106940</v>
+        <v>1436267</v>
       </c>
       <c r="F2">
-        <v>-42506</v>
+        <v>1436267</v>
       </c>
       <c r="G2">
-        <v>149446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>36</v>
-      </c>
-      <c r="C3">
         <v>0</v>
-      </c>
-      <c r="D3">
-        <v>36</v>
-      </c>
-      <c r="E3">
-        <v>216784</v>
-      </c>
-      <c r="F3">
-        <v>-106524</v>
-      </c>
-      <c r="G3">
-        <v>323308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>231458</v>
-      </c>
-      <c r="F4">
-        <v>-123656</v>
-      </c>
-      <c r="G4">
-        <v>355114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>203518</v>
-      </c>
-      <c r="F5">
-        <v>-104522</v>
-      </c>
-      <c r="G5">
-        <v>308040</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>97810</v>
-      </c>
-      <c r="F6">
-        <v>-40786</v>
-      </c>
-      <c r="G6">
-        <v>138596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>44968</v>
-      </c>
-      <c r="F7">
-        <v>-14846</v>
-      </c>
-      <c r="G7">
-        <v>59814</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>29136</v>
-      </c>
-      <c r="F8">
-        <v>-10040</v>
-      </c>
-      <c r="G8">
-        <v>39176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>61772</v>
-      </c>
-      <c r="F9">
-        <v>-38976</v>
-      </c>
-      <c r="G9">
-        <v>100748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10">
-        <v>52</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>52</v>
-      </c>
-      <c r="E10">
-        <v>168014</v>
-      </c>
-      <c r="F10">
-        <v>-129228</v>
-      </c>
-      <c r="G10">
-        <v>297242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11">
-        <v>107</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>107</v>
-      </c>
-      <c r="E11">
-        <v>215155</v>
-      </c>
-      <c r="F11">
-        <v>-133215</v>
-      </c>
-      <c r="G11">
-        <v>348370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>143077</v>
-      </c>
-      <c r="F12">
-        <v>-62631</v>
-      </c>
-      <c r="G12">
-        <v>205708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>67216</v>
-      </c>
-      <c r="F13">
-        <v>-38824</v>
-      </c>
-      <c r="G13">
-        <v>106040</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>27174</v>
-      </c>
-      <c r="F14">
-        <v>-18544</v>
-      </c>
-      <c r="G14">
-        <v>45718</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>69272</v>
-      </c>
-      <c r="F15">
-        <v>-47656</v>
-      </c>
-      <c r="G15">
-        <v>116928</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16">
-        <v>70</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>70</v>
-      </c>
-      <c r="E16">
-        <v>137858</v>
-      </c>
-      <c r="F16">
-        <v>-73976</v>
-      </c>
-      <c r="G16">
-        <v>211834</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>104</v>
-      </c>
-      <c r="C17">
-        <v>74</v>
-      </c>
-      <c r="D17">
-        <v>30</v>
-      </c>
-      <c r="E17">
-        <v>300132</v>
-      </c>
-      <c r="F17">
-        <v>-139098</v>
-      </c>
-      <c r="G17">
-        <v>439230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18">
-        <v>149</v>
-      </c>
-      <c r="C18">
-        <v>69</v>
-      </c>
-      <c r="D18">
-        <v>80</v>
-      </c>
-      <c r="E18">
-        <v>335729</v>
-      </c>
-      <c r="F18">
-        <v>-157191</v>
-      </c>
-      <c r="G18">
-        <v>492920</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19">
-        <v>27</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>67009</v>
-      </c>
-      <c r="F19">
-        <v>-52547</v>
-      </c>
-      <c r="G19">
-        <v>119556</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>29946</v>
-      </c>
-      <c r="F20">
-        <v>-23304</v>
-      </c>
-      <c r="G20">
-        <v>53250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21">
-        <v>111</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>111</v>
-      </c>
-      <c r="E21">
-        <v>82493</v>
-      </c>
-      <c r="F21">
-        <v>-75247</v>
-      </c>
-      <c r="G21">
-        <v>157740</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22">
-        <v>139</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>139</v>
-      </c>
-      <c r="E22">
-        <v>137617</v>
-      </c>
-      <c r="F22">
-        <v>-98669</v>
-      </c>
-      <c r="G22">
-        <v>236286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23">
-        <v>176</v>
-      </c>
-      <c r="C23">
-        <v>92</v>
-      </c>
-      <c r="D23">
-        <v>84</v>
-      </c>
-      <c r="E23">
-        <v>309090</v>
-      </c>
-      <c r="F23">
-        <v>-160260</v>
-      </c>
-      <c r="G23">
-        <v>469350</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24">
-        <v>60</v>
-      </c>
-      <c r="C24">
-        <v>43</v>
-      </c>
-      <c r="D24">
-        <v>17</v>
-      </c>
-      <c r="E24">
-        <v>335538</v>
-      </c>
-      <c r="F24">
-        <v>-160502</v>
-      </c>
-      <c r="G24">
-        <v>496040</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25">
-        <v>56</v>
-      </c>
-      <c r="C25">
-        <v>18</v>
-      </c>
-      <c r="D25">
-        <v>38</v>
-      </c>
-      <c r="E25">
-        <v>199316</v>
-      </c>
-      <c r="F25">
-        <v>-110786</v>
-      </c>
-      <c r="G25">
-        <v>310102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26">
-        <v>32</v>
-      </c>
-      <c r="C26">
-        <v>29</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>86354</v>
-      </c>
-      <c r="F26">
-        <v>-63924</v>
-      </c>
-      <c r="G26">
-        <v>150278</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27">
-        <v>22</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>22</v>
-      </c>
-      <c r="E27">
-        <v>34888</v>
-      </c>
-      <c r="F27">
-        <v>-23736</v>
-      </c>
-      <c r="G27">
-        <v>58624</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>89361</v>
-      </c>
-      <c r="F28">
-        <v>-78337</v>
-      </c>
-      <c r="G28">
-        <v>167698</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29">
-        <v>292</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>292</v>
-      </c>
-      <c r="E29">
-        <v>158810</v>
-      </c>
-      <c r="F29">
-        <v>-116726</v>
-      </c>
-      <c r="G29">
-        <v>275536</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30">
-        <v>167</v>
-      </c>
-      <c r="C30">
-        <v>60</v>
-      </c>
-      <c r="D30">
-        <v>107</v>
-      </c>
-      <c r="E30">
-        <v>302129</v>
-      </c>
-      <c r="F30">
-        <v>-170577</v>
-      </c>
-      <c r="G30">
-        <v>472706</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31">
-        <v>425</v>
-      </c>
-      <c r="C31">
-        <v>62</v>
-      </c>
-      <c r="D31">
-        <v>363</v>
-      </c>
-      <c r="E31">
-        <v>335891</v>
-      </c>
-      <c r="F31">
-        <v>-168437</v>
-      </c>
-      <c r="G31">
-        <v>504328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32">
-        <v>204</v>
-      </c>
-      <c r="C32">
-        <v>44</v>
-      </c>
-      <c r="D32">
-        <v>160</v>
-      </c>
-      <c r="E32">
-        <v>208924</v>
-      </c>
-      <c r="F32">
-        <v>-121994</v>
-      </c>
-      <c r="G32">
-        <v>330918</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33">
-        <v>35</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>35</v>
-      </c>
-      <c r="E33">
-        <v>95379</v>
-      </c>
-      <c r="F33">
-        <v>-72075</v>
-      </c>
-      <c r="G33">
-        <v>167454</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34">
-        <v>61</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>61</v>
-      </c>
-      <c r="E34">
-        <v>34165</v>
-      </c>
-      <c r="F34">
-        <v>-23711</v>
-      </c>
-      <c r="G34">
-        <v>57876</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35">
-        <v>29</v>
-      </c>
-      <c r="C35">
-        <v>8</v>
-      </c>
-      <c r="D35">
-        <v>21</v>
-      </c>
-      <c r="E35">
-        <v>66925</v>
-      </c>
-      <c r="F35">
-        <v>-59729</v>
-      </c>
-      <c r="G35">
-        <v>126654</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>121496</v>
-      </c>
-      <c r="F36">
-        <v>-105418</v>
-      </c>
-      <c r="G36">
-        <v>226914</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37">
-        <v>153</v>
-      </c>
-      <c r="C37">
-        <v>23</v>
-      </c>
-      <c r="D37">
-        <v>130</v>
-      </c>
-      <c r="E37">
-        <v>275829</v>
-      </c>
-      <c r="F37">
-        <v>-192507</v>
-      </c>
-      <c r="G37">
-        <v>468336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38">
-        <v>67</v>
-      </c>
-      <c r="C38">
-        <v>52</v>
-      </c>
-      <c r="D38">
-        <v>15</v>
-      </c>
-      <c r="E38">
-        <v>313899</v>
-      </c>
-      <c r="F38">
-        <v>-180927</v>
-      </c>
-      <c r="G38">
-        <v>494826</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39">
-        <v>162</v>
-      </c>
-      <c r="C39">
-        <v>6</v>
-      </c>
-      <c r="D39">
-        <v>156</v>
-      </c>
-      <c r="E39">
-        <v>181002</v>
-      </c>
-      <c r="F39">
-        <v>-104566</v>
-      </c>
-      <c r="G39">
-        <v>285568</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40">
-        <v>63</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>63</v>
-      </c>
-      <c r="E40">
-        <v>54387</v>
-      </c>
-      <c r="F40">
-        <v>-41915</v>
-      </c>
-      <c r="G40">
-        <v>96302</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>22136</v>
-      </c>
-      <c r="F41">
-        <v>-16618</v>
-      </c>
-      <c r="G41">
-        <v>38754</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>47060</v>
-      </c>
-      <c r="F42">
-        <v>-40496</v>
-      </c>
-      <c r="G42">
-        <v>87556</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>90614</v>
-      </c>
-      <c r="F43">
-        <v>-70180</v>
-      </c>
-      <c r="G43">
-        <v>160794</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44">
-        <v>54</v>
-      </c>
-      <c r="C44">
-        <v>42</v>
-      </c>
-      <c r="D44">
-        <v>12</v>
-      </c>
-      <c r="E44">
-        <v>299602</v>
-      </c>
-      <c r="F44">
-        <v>-170348</v>
-      </c>
-      <c r="G44">
-        <v>469950</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45">
-        <v>137</v>
-      </c>
-      <c r="C45">
-        <v>52</v>
-      </c>
-      <c r="D45">
-        <v>85</v>
-      </c>
-      <c r="E45">
-        <v>170385</v>
-      </c>
-      <c r="F45">
-        <v>-95035</v>
-      </c>
-      <c r="G45">
-        <v>265420</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46">
-        <v>29</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>27</v>
-      </c>
-      <c r="E46">
-        <v>19561</v>
-      </c>
-      <c r="F46">
-        <v>-14055</v>
-      </c>
-      <c r="G46">
-        <v>33616</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47">
-        <v>240</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>240</v>
-      </c>
-      <c r="E47">
-        <v>97116</v>
-      </c>
-      <c r="F47">
-        <v>-89686</v>
-      </c>
-      <c r="G47">
-        <v>186802</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48">
-        <v>303</v>
-      </c>
-      <c r="C48">
-        <v>46</v>
-      </c>
-      <c r="D48">
-        <v>257</v>
-      </c>
-      <c r="E48">
-        <v>224297</v>
-      </c>
-      <c r="F48">
-        <v>-186749</v>
-      </c>
-      <c r="G48">
-        <v>411046</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49">
-        <v>331</v>
-      </c>
-      <c r="C49">
-        <v>121</v>
-      </c>
-      <c r="D49">
-        <v>210</v>
-      </c>
-      <c r="E49">
-        <v>365145</v>
-      </c>
-      <c r="F49">
-        <v>-268563</v>
-      </c>
-      <c r="G49">
-        <v>633708</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50">
-        <v>3965</v>
-      </c>
-      <c r="C50">
-        <v>844</v>
-      </c>
-      <c r="D50">
-        <v>11752220</v>
       </c>
     </row>
   </sheetData>
